--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976622.9414859704</v>
+        <v>-979472.3636752991</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>334.7157332856294</v>
       </c>
       <c r="C2" t="n">
-        <v>102.1228193328345</v>
+        <v>345.6838447852917</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.9313784350747</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>153.8100533453329</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>226.2547500407882</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>35.82067277166087</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.5103304121437</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>68.49439899867242</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>138.2820717596885</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>31.97208056452895</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>113.3673764371785</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4924168675700775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>244.3165938470681</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.92406475355313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>140.7215037338425</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7736458609249</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.295728843236</v>
+        <v>967.5704634081064</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
         <v>201.8560754027576</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>552.4407231609042</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2153.726218239669</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.685703078436</v>
+        <v>1527.176751935</v>
       </c>
       <c r="C8" t="n">
-        <v>1341.723186138024</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
         <v>173.6359524202537</v>
@@ -4808,13 +4808,13 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1417.096460678711</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.054198412672</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2450.054198412672</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>2097.285543142558</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.285543142558</v>
+        <v>1913.776591999122</v>
       </c>
       <c r="Y8" t="n">
-        <v>2097.285543142558</v>
+        <v>1913.776591999122</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4887,13 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1828.690733635983</v>
       </c>
       <c r="O9" t="n">
         <v>2189.58332957858</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.4629204073742</v>
+        <v>310.8417456570962</v>
       </c>
       <c r="C10" t="n">
-        <v>370.4629204073742</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="D10" t="n">
-        <v>370.4629204073742</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V10" t="n">
-        <v>591.7528903262277</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="W10" t="n">
-        <v>591.7528903262277</v>
+        <v>538.8312965551136</v>
       </c>
       <c r="X10" t="n">
-        <v>591.2554995509043</v>
+        <v>310.8417456570962</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.4629204073742</v>
+        <v>310.8417456570962</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135315</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237297</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093767</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908939</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6844,13 +6844,13 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6935,25 +6935,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,16 +7078,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,10 +7597,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954149</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8456,16 +8456,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>243.4933181983577</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>306.1979795936941</v>
+        <v>203.4144275493296</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.150072438173</v>
+        <v>19.58904698571586</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>16.74540393734904</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>41.86788054217604</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.6605885985417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>145.8014946027485</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.811007491169903</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943217</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="F2" t="n">
-        <v>201786.6499225015</v>
-      </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363161</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127713.0035258958</v>
+        <v>127713.0035258957</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682758</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="N4" t="n">
         <v>13668.39582977622</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="P4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-631287.8199095279</v>
+        <v>-631647.9029252455</v>
       </c>
       <c r="C6" t="n">
-        <v>-87521.05106037192</v>
+        <v>-87521.05106037197</v>
       </c>
       <c r="D6" t="n">
-        <v>-243324.8571541668</v>
+        <v>-243324.857154167</v>
       </c>
       <c r="E6" t="n">
-        <v>-676066.1078488945</v>
+        <v>-676100.8457743303</v>
       </c>
       <c r="F6" t="n">
-        <v>94986.58353191167</v>
+        <v>94951.84560647601</v>
       </c>
       <c r="G6" t="n">
-        <v>94986.58353191162</v>
+        <v>94951.84560647604</v>
       </c>
       <c r="H6" t="n">
-        <v>94986.58353191164</v>
+        <v>94951.84560647604</v>
       </c>
       <c r="I6" t="n">
-        <v>94986.58353191167</v>
+        <v>94951.84560647604</v>
       </c>
       <c r="J6" t="n">
-        <v>-81436.63566068132</v>
+        <v>-81471.37358611701</v>
       </c>
       <c r="K6" t="n">
-        <v>94986.58353191167</v>
+        <v>94951.84560647586</v>
       </c>
       <c r="L6" t="n">
-        <v>69000.21278874774</v>
+        <v>69000.212788748</v>
       </c>
       <c r="M6" t="n">
-        <v>-35780.57992567898</v>
+        <v>-35780.57992567889</v>
       </c>
       <c r="N6" t="n">
-        <v>88427.93078237935</v>
+        <v>88427.93078237932</v>
       </c>
       <c r="O6" t="n">
-        <v>88427.93078237932</v>
+        <v>88427.93078237923</v>
       </c>
       <c r="P6" t="n">
         <v>88427.93078237932</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>48.01810837785121</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>332.495564780064</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>112.5916199015163</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>71.89960204370422</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>156.4790916226924</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>333.9104279068082</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>183.6432443251556</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>226.990820011319</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>219.1827056577717</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>53.87944466144936</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.2172385214671</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35176,16 +35176,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>439.7905029377338</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35255,16 +35255,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>467.3215277439574</v>
+        <v>364.5379756995928</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
